--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0376D10C-72E1-4F81-A763-6186FCBAFDDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DBC885-7325-4AEB-AF70-20840335E14C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>FileSystemObject is the COM Object.</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Sample Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +47,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -348,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -359,6 +371,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
